--- a/DD/gantt/gantt.xlsx
+++ b/DD/gantt/gantt.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matteo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matteo\Desktop\progetto software engineering 2\MoscatelliPozzoli\DD\gantt\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="39">
   <si>
     <t>Project Plan</t>
   </si>
@@ -92,12 +92,6 @@
     <t>Second Phase Testing</t>
   </si>
   <si>
-    <t>StatisticHandler Implementation</t>
-  </si>
-  <si>
-    <t>StatisticHandler, DataBaseHandler Integration</t>
-  </si>
-  <si>
     <t>AuthorityHandler, EndUserHandler, StatisticHandler Integration</t>
   </si>
   <si>
@@ -132,6 +126,21 @@
   </si>
   <si>
     <t>Fourth Phase Testing</t>
+  </si>
+  <si>
+    <t>StatisticsHandler Implementation</t>
+  </si>
+  <si>
+    <t>StatisticsHandler, DataBaseHandler Integration</t>
+  </si>
+  <si>
+    <t>AuthorityHandler, EndUserHandler, StatisticsHandler Integration</t>
+  </si>
+  <si>
+    <t>StatisticsHandler and Map services integration</t>
+  </si>
+  <si>
+    <t>StatisticsHandler, MunicipalityHandler, DataBaseHandler Integration</t>
   </si>
 </sst>
 </file>
@@ -946,8 +955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:S60"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1635,7 +1644,7 @@
     </row>
     <row r="35" spans="1:23" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="47" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B35" s="48">
         <v>2</v>
@@ -1821,7 +1830,7 @@
     </row>
     <row r="41" spans="1:23" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="47" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B41" s="48">
         <v>7</v>
@@ -1852,7 +1861,7 @@
     </row>
     <row r="42" spans="1:23" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="47" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B42" s="48">
         <v>7</v>
@@ -1883,7 +1892,7 @@
     </row>
     <row r="43" spans="1:23" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="47" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B43" s="48">
         <v>7</v>
@@ -1914,7 +1923,7 @@
     </row>
     <row r="44" spans="1:23" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="47" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B44" s="48">
         <v>10</v>
@@ -1945,7 +1954,7 @@
     </row>
     <row r="45" spans="1:23" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="47" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B45" s="48">
         <v>10</v>
@@ -1976,7 +1985,7 @@
     </row>
     <row r="46" spans="1:23" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="47" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B46" s="48">
         <v>12</v>
@@ -2008,7 +2017,7 @@
     <row r="47" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="49" spans="1:23" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="50" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
@@ -2145,7 +2154,7 @@
     </row>
     <row r="54" spans="1:23" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="47" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B54" s="48">
         <v>3</v>
@@ -2176,7 +2185,7 @@
     </row>
     <row r="55" spans="1:23" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="47" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B55" s="48">
         <v>2</v>
@@ -2238,7 +2247,7 @@
     </row>
     <row r="57" spans="1:23" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="47" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B57" s="48">
         <v>7</v>
@@ -2269,7 +2278,7 @@
     </row>
     <row r="58" spans="1:23" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="47" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B58" s="48">
         <v>7</v>
@@ -2300,7 +2309,7 @@
     </row>
     <row r="59" spans="1:23" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="47" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B59" s="48">
         <v>9</v>
@@ -2331,7 +2340,7 @@
     </row>
     <row r="60" spans="1:23" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="47" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B60" s="48">
         <v>12</v>

--- a/DD/gantt/gantt.xlsx
+++ b/DD/gantt/gantt.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
   <si>
     <t>Project Plan</t>
   </si>
@@ -92,9 +92,6 @@
     <t>Second Phase Testing</t>
   </si>
   <si>
-    <t>AuthorityHandler, EndUserHandler, StatisticHandler Integration</t>
-  </si>
-  <si>
     <t>AuthorityApplication and AuthorityrHandler Integration</t>
   </si>
   <si>
@@ -104,9 +101,6 @@
     <t>Third Phase Testing</t>
   </si>
   <si>
-    <t>StatisticHandler and Map services integration</t>
-  </si>
-  <si>
     <t>MunicipalityHandler Implementation</t>
   </si>
   <si>
@@ -116,12 +110,6 @@
     <t>MunicipalitySoftware and MunicipalityHandler Integration</t>
   </si>
   <si>
-    <t>UserAccessHandler, MunicipalityHandler, DataBaseHandler Integration</t>
-  </si>
-  <si>
-    <t>StatisticHandler, MunicipalityHandler, DataBaseHandler Integration</t>
-  </si>
-  <si>
     <t>Fourth Phase: Municipality</t>
   </si>
   <si>
@@ -141,6 +129,12 @@
   </si>
   <si>
     <t>StatisticsHandler, MunicipalityHandler, DataBaseHandler Integration</t>
+  </si>
+  <si>
+    <t>UserAccessHandler, DataBaseHandler Integration</t>
+  </si>
+  <si>
+    <t>Single units testing</t>
   </si>
 </sst>
 </file>
@@ -264,7 +258,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -581,6 +575,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="5" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -588,7 +591,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -672,6 +675,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Attività" xfId="1"/>
@@ -953,10 +957,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W62"/>
+  <dimension ref="A1:W66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:S64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -967,17 +971,17 @@
     <col min="4" max="19" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="33.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:19" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:19" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="53" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -994,7 +998,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1043,8 +1047,11 @@
       <c r="R5" s="11">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="S5" s="11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="47" t="s">
         <v>4</v>
       </c>
@@ -1059,7 +1066,7 @@
       <c r="F6" s="18"/>
       <c r="G6" s="19"/>
     </row>
-    <row r="7" spans="1:18" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:19" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="47" t="s">
         <v>5</v>
       </c>
@@ -1073,7 +1080,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="16"/>
     </row>
-    <row r="8" spans="1:18" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:19" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="47" t="s">
         <v>6</v>
       </c>
@@ -1087,7 +1094,7 @@
       <c r="F8" s="7"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:18" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:19" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="47" t="s">
         <v>7</v>
       </c>
@@ -1104,7 +1111,7 @@
       <c r="J9" s="5"/>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:18" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:19" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="47" t="s">
         <v>8</v>
       </c>
@@ -1117,7 +1124,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="8"/>
     </row>
-    <row r="11" spans="1:18" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:19" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="47" t="s">
         <v>9</v>
       </c>
@@ -1131,7 +1138,7 @@
       <c r="I11" s="5"/>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:18" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:19" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="47" t="s">
         <v>10</v>
       </c>
@@ -1141,147 +1148,140 @@
       <c r="C12" s="48">
         <v>3</v>
       </c>
-      <c r="K12" s="4"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="6"/>
-    </row>
-    <row r="13" spans="1:18" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="L12" s="9"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="8"/>
+    </row>
+    <row r="13" spans="1:19" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="48">
+        <v>5</v>
+      </c>
+      <c r="C13" s="48">
+        <v>7</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="6"/>
+    </row>
+    <row r="14" spans="1:19" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="48">
+      <c r="B14" s="48">
         <v>11</v>
       </c>
-      <c r="C13" s="48">
+      <c r="C14" s="48">
         <v>5</v>
       </c>
-      <c r="N13" s="4"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="6"/>
-    </row>
-    <row r="14" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:18" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="52" t="s">
+      <c r="O14" s="4"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="6"/>
+    </row>
+    <row r="15" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:22" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="52" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="B18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="10">
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="10">
         <v>1</v>
       </c>
-      <c r="E18" s="10">
-        <v>2</v>
-      </c>
-      <c r="F18" s="10">
+      <c r="E19" s="10">
+        <v>2</v>
+      </c>
+      <c r="F19" s="10">
         <v>3</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G19" s="10">
         <v>4</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H19" s="10">
         <v>5</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I19" s="11">
         <v>6</v>
       </c>
-      <c r="J18" s="11">
+      <c r="J19" s="11">
         <v>7</v>
       </c>
-      <c r="K18" s="11">
+      <c r="K19" s="11">
         <v>8</v>
       </c>
-      <c r="L18" s="11">
+      <c r="L19" s="11">
         <v>9</v>
       </c>
-      <c r="M18" s="11">
+      <c r="M19" s="11">
         <v>10</v>
       </c>
-      <c r="N18" s="11">
+      <c r="N19" s="11">
         <v>11</v>
       </c>
-      <c r="O18" s="11">
+      <c r="O19" s="11">
         <v>12</v>
       </c>
-      <c r="P18" s="11">
+      <c r="P19" s="11">
         <v>13</v>
       </c>
-      <c r="Q18" s="11">
+      <c r="Q19" s="11">
         <v>14</v>
       </c>
-      <c r="R18" s="11">
+      <c r="R19" s="11">
         <v>15</v>
       </c>
-      <c r="S18" s="11">
+      <c r="S19" s="11">
         <v>16</v>
       </c>
-      <c r="T18" s="11"/>
-    </row>
-    <row r="19" spans="1:22" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="48">
-        <v>1</v>
-      </c>
-      <c r="C19" s="49">
-        <v>2</v>
-      </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="12"/>
-      <c r="V19" s="12"/>
+      <c r="T19" s="11"/>
     </row>
     <row r="20" spans="1:22" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="47" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B20" s="48">
-        <v>2</v>
-      </c>
-      <c r="C20" s="48">
-        <v>2</v>
-      </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="12"/>
+        <v>1</v>
+      </c>
+      <c r="C20" s="49">
+        <v>2</v>
+      </c>
+      <c r="D20" s="21"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
@@ -1300,19 +1300,19 @@
     </row>
     <row r="21" spans="1:22" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="47" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B21" s="48">
         <v>2</v>
       </c>
       <c r="C21" s="48">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" s="12"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="26"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
@@ -1330,20 +1330,20 @@
     </row>
     <row r="22" spans="1:22" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="47" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B22" s="48">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C22" s="48">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="29"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="12"/>
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
       <c r="L22" s="12"/>
@@ -1360,22 +1360,23 @@
     </row>
     <row r="23" spans="1:22" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="47" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B23" s="48">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C23" s="48">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D23" s="12"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="24"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
       <c r="M23" s="12"/>
       <c r="N23" s="12"/>
       <c r="O23" s="12"/>
@@ -1389,23 +1390,22 @@
     </row>
     <row r="24" spans="1:22" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="47" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B24" s="48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C24" s="48">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="24"/>
       <c r="M24" s="12"/>
       <c r="N24" s="12"/>
       <c r="O24" s="12"/>
@@ -1419,22 +1419,22 @@
     </row>
     <row r="25" spans="1:22" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="47" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B25" s="48">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C25" s="48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
+      <c r="F25" s="30"/>
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="24"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
       <c r="L25" s="12"/>
       <c r="M25" s="12"/>
       <c r="N25" s="12"/>
@@ -1449,21 +1449,21 @@
     </row>
     <row r="26" spans="1:22" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="47" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B26" s="48">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C26" s="48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="27"/>
       <c r="K26" s="24"/>
       <c r="L26" s="12"/>
       <c r="M26" s="12"/>
@@ -1479,13 +1479,13 @@
     </row>
     <row r="27" spans="1:22" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="47" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B27" s="48">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C27" s="48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
@@ -1493,11 +1493,12 @@
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="24"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
       <c r="P27" s="12"/>
       <c r="Q27" s="12"/>
       <c r="R27" s="12"/>
@@ -1508,13 +1509,13 @@
     </row>
     <row r="28" spans="1:22" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="47" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B28" s="48">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C28" s="48">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
@@ -1524,170 +1525,166 @@
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
       <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="23"/>
-      <c r="P28" s="27"/>
-      <c r="Q28" s="27"/>
-      <c r="R28" s="27"/>
-      <c r="S28" s="24"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="55"/>
+      <c r="N28" s="26"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12"/>
       <c r="U28" s="12"/>
       <c r="V28" s="12"/>
     </row>
-    <row r="29" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:22" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="51" t="s">
+    <row r="29" spans="1:22" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="48">
+        <v>3</v>
+      </c>
+      <c r="C29" s="48">
+        <v>9</v>
+      </c>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="24"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="12"/>
+      <c r="V29" s="12"/>
+    </row>
+    <row r="30" spans="1:22" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="48">
+        <v>12</v>
+      </c>
+      <c r="C30" s="48">
+        <v>5</v>
+      </c>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="27"/>
+      <c r="Q30" s="27"/>
+      <c r="R30" s="27"/>
+      <c r="S30" s="24"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="12"/>
+    </row>
+    <row r="31" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="1:23" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="51" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+    <row r="34" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C32" s="1" t="s">
+      <c r="B34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="10">
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="10">
         <v>1</v>
       </c>
-      <c r="E33" s="10">
-        <v>2</v>
-      </c>
-      <c r="F33" s="10">
+      <c r="E35" s="10">
+        <v>2</v>
+      </c>
+      <c r="F35" s="10">
         <v>3</v>
       </c>
-      <c r="G33" s="10">
+      <c r="G35" s="10">
         <v>4</v>
       </c>
-      <c r="H33" s="10">
+      <c r="H35" s="10">
         <v>5</v>
       </c>
-      <c r="I33" s="11">
+      <c r="I35" s="11">
         <v>6</v>
       </c>
-      <c r="J33" s="11">
+      <c r="J35" s="11">
         <v>7</v>
       </c>
-      <c r="K33" s="11">
+      <c r="K35" s="11">
         <v>8</v>
       </c>
-      <c r="L33" s="11">
+      <c r="L35" s="11">
         <v>9</v>
       </c>
-      <c r="M33" s="11">
+      <c r="M35" s="11">
         <v>10</v>
       </c>
-      <c r="N33" s="11">
+      <c r="N35" s="11">
         <v>11</v>
       </c>
-      <c r="O33" s="11">
+      <c r="O35" s="11">
         <v>12</v>
       </c>
-      <c r="P33" s="11">
+      <c r="P35" s="11">
         <v>13</v>
       </c>
-      <c r="Q33" s="11">
+      <c r="Q35" s="11">
         <v>14</v>
       </c>
-      <c r="R33" s="11">
+      <c r="R35" s="11">
         <v>15</v>
       </c>
-      <c r="S33" s="11">
+      <c r="S35" s="11">
         <v>16</v>
       </c>
-    </row>
-    <row r="34" spans="1:23" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="48">
-        <v>1</v>
-      </c>
-      <c r="C34" s="49">
-        <v>2</v>
-      </c>
-      <c r="D34" s="31"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="12"/>
-      <c r="P34" s="12"/>
-      <c r="Q34" s="12"/>
-      <c r="R34" s="12"/>
-      <c r="S34" s="12"/>
-      <c r="T34" s="12"/>
-      <c r="U34" s="12"/>
-      <c r="V34" s="12"/>
-      <c r="W34" s="12"/>
-    </row>
-    <row r="35" spans="1:23" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="48">
-        <v>2</v>
-      </c>
-      <c r="C35" s="48">
-        <v>5</v>
-      </c>
-      <c r="D35" s="12"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="35"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="12"/>
-      <c r="O35" s="12"/>
-      <c r="P35" s="12"/>
-      <c r="Q35" s="12"/>
-      <c r="R35" s="12"/>
-      <c r="S35" s="12"/>
-      <c r="T35" s="12"/>
-      <c r="U35" s="12"/>
-      <c r="V35" s="12"/>
-      <c r="W35" s="12"/>
     </row>
     <row r="36" spans="1:23" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="47" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B36" s="48">
-        <v>4</v>
-      </c>
-      <c r="C36" s="48">
-        <v>2</v>
-      </c>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="35"/>
+        <v>1</v>
+      </c>
+      <c r="C36" s="49">
+        <v>2</v>
+      </c>
+      <c r="D36" s="31"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="12"/>
       <c r="I36" s="12"/>
       <c r="J36" s="12"/>
       <c r="K36" s="12"/>
@@ -1706,20 +1703,20 @@
     </row>
     <row r="37" spans="1:23" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="47" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B37" s="48">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C37" s="48">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="20"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="35"/>
       <c r="J37" s="12"/>
       <c r="K37" s="12"/>
       <c r="L37" s="12"/>
@@ -1737,23 +1734,23 @@
     </row>
     <row r="38" spans="1:23" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B38" s="48">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C38" s="48">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
       <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="33"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="35"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
       <c r="M38" s="12"/>
       <c r="N38" s="12"/>
       <c r="O38" s="12"/>
@@ -1768,10 +1765,10 @@
     </row>
     <row r="39" spans="1:23" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B39" s="48">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C39" s="48">
         <v>2</v>
@@ -1779,12 +1776,12 @@
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
       <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="20"/>
       <c r="J39" s="12"/>
-      <c r="K39" s="33"/>
-      <c r="L39" s="35"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
       <c r="M39" s="12"/>
       <c r="N39" s="12"/>
       <c r="O39" s="12"/>
@@ -1799,23 +1796,23 @@
     </row>
     <row r="40" spans="1:23" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="47" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B40" s="48">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C40" s="48">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="35"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
       <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="34"/>
+      <c r="L40" s="35"/>
       <c r="M40" s="12"/>
       <c r="N40" s="12"/>
       <c r="O40" s="12"/>
@@ -1830,10 +1827,10 @@
     </row>
     <row r="41" spans="1:23" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="47" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="B41" s="48">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" s="48">
         <v>2</v>
@@ -1844,9 +1841,9 @@
       <c r="G41" s="12"/>
       <c r="H41" s="12"/>
       <c r="I41" s="12"/>
-      <c r="J41" s="37"/>
-      <c r="K41" s="38"/>
-      <c r="L41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="33"/>
+      <c r="L41" s="35"/>
       <c r="M41" s="12"/>
       <c r="N41" s="12"/>
       <c r="O41" s="12"/>
@@ -1861,23 +1858,23 @@
     </row>
     <row r="42" spans="1:23" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="47" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="B42" s="48">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C42" s="48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="35"/>
       <c r="H42" s="12"/>
       <c r="I42" s="12"/>
-      <c r="J42" s="37"/>
-      <c r="K42" s="39"/>
-      <c r="L42" s="38"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
       <c r="M42" s="12"/>
       <c r="N42" s="12"/>
       <c r="O42" s="12"/>
@@ -1892,13 +1889,13 @@
     </row>
     <row r="43" spans="1:23" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="47" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B43" s="48">
         <v>7</v>
       </c>
       <c r="C43" s="48">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
@@ -1906,11 +1903,11 @@
       <c r="G43" s="12"/>
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
-      <c r="J43" s="33"/>
-      <c r="K43" s="34"/>
-      <c r="L43" s="34"/>
-      <c r="M43" s="34"/>
-      <c r="N43" s="35"/>
+      <c r="J43" s="37"/>
+      <c r="K43" s="38"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
       <c r="O43" s="12"/>
       <c r="P43" s="12"/>
       <c r="Q43" s="12"/>
@@ -1923,13 +1920,13 @@
     </row>
     <row r="44" spans="1:23" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="47" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B44" s="48">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C44" s="48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
@@ -1937,11 +1934,11 @@
       <c r="G44" s="12"/>
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="12"/>
-      <c r="M44" s="33"/>
-      <c r="N44" s="35"/>
+      <c r="J44" s="37"/>
+      <c r="K44" s="39"/>
+      <c r="L44" s="38"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="12"/>
       <c r="O44" s="12"/>
       <c r="P44" s="12"/>
       <c r="Q44" s="12"/>
@@ -1954,13 +1951,13 @@
     </row>
     <row r="45" spans="1:23" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="47" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B45" s="48">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C45" s="48">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
@@ -1968,10 +1965,10 @@
       <c r="G45" s="12"/>
       <c r="H45" s="12"/>
       <c r="I45" s="12"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="12"/>
-      <c r="L45" s="12"/>
-      <c r="M45" s="33"/>
+      <c r="J45" s="33"/>
+      <c r="K45" s="34"/>
+      <c r="L45" s="34"/>
+      <c r="M45" s="34"/>
       <c r="N45" s="35"/>
       <c r="O45" s="12"/>
       <c r="P45" s="12"/>
@@ -1985,13 +1982,13 @@
     </row>
     <row r="46" spans="1:23" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="47" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B46" s="48">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C46" s="48">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" s="12"/>
       <c r="E46" s="12"/>
@@ -2002,205 +1999,205 @@
       <c r="J46" s="12"/>
       <c r="K46" s="12"/>
       <c r="L46" s="12"/>
-      <c r="M46" s="12"/>
-      <c r="N46" s="12"/>
-      <c r="O46" s="33"/>
-      <c r="P46" s="34"/>
-      <c r="Q46" s="34"/>
-      <c r="R46" s="34"/>
-      <c r="S46" s="35"/>
+      <c r="M46" s="33"/>
+      <c r="N46" s="35"/>
+      <c r="O46" s="12"/>
+      <c r="P46" s="12"/>
+      <c r="Q46" s="12"/>
+      <c r="R46" s="12"/>
+      <c r="S46" s="12"/>
       <c r="T46" s="12"/>
       <c r="U46" s="12"/>
       <c r="V46" s="12"/>
       <c r="W46" s="12"/>
     </row>
-    <row r="47" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="1:23" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="50" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
+    <row r="47" spans="1:23" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47" s="48">
+        <v>10</v>
+      </c>
+      <c r="C47" s="48">
+        <v>2</v>
+      </c>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="37"/>
+      <c r="N47" s="38"/>
+      <c r="O47" s="12"/>
+      <c r="P47" s="12"/>
+      <c r="Q47" s="12"/>
+      <c r="R47" s="12"/>
+      <c r="S47" s="12"/>
+      <c r="T47" s="12"/>
+      <c r="U47" s="12"/>
+      <c r="V47" s="12"/>
+      <c r="W47" s="12"/>
+    </row>
+    <row r="48" spans="1:23" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48" s="48">
+        <v>3</v>
+      </c>
+      <c r="C48" s="48">
+        <v>9</v>
+      </c>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="34"/>
+      <c r="I48" s="34"/>
+      <c r="J48" s="34"/>
+      <c r="K48" s="34"/>
+      <c r="L48" s="34"/>
+      <c r="M48" s="34"/>
+      <c r="N48" s="35"/>
+      <c r="O48" s="12"/>
+      <c r="P48" s="12"/>
+      <c r="Q48" s="12"/>
+      <c r="R48" s="12"/>
+      <c r="S48" s="12"/>
+      <c r="T48" s="12"/>
+      <c r="U48" s="12"/>
+      <c r="V48" s="12"/>
+      <c r="W48" s="12"/>
+    </row>
+    <row r="49" spans="1:23" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="B49" s="48">
+        <v>12</v>
+      </c>
+      <c r="C49" s="48">
+        <v>5</v>
+      </c>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="12"/>
+      <c r="N49" s="12"/>
+      <c r="O49" s="33"/>
+      <c r="P49" s="34"/>
+      <c r="Q49" s="34"/>
+      <c r="R49" s="34"/>
+      <c r="S49" s="35"/>
+      <c r="T49" s="12"/>
+      <c r="U49" s="12"/>
+      <c r="V49" s="12"/>
+      <c r="W49" s="12"/>
+    </row>
+    <row r="50" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:23" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="50" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C50" s="1" t="s">
+      <c r="B53" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D53" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-    </row>
-    <row r="51" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="10">
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+    </row>
+    <row r="54" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="10">
         <v>1</v>
       </c>
-      <c r="E51" s="10">
-        <v>2</v>
-      </c>
-      <c r="F51" s="10">
+      <c r="E54" s="10">
+        <v>2</v>
+      </c>
+      <c r="F54" s="10">
         <v>3</v>
       </c>
-      <c r="G51" s="10">
+      <c r="G54" s="10">
         <v>4</v>
       </c>
-      <c r="H51" s="10">
+      <c r="H54" s="10">
         <v>5</v>
       </c>
-      <c r="I51" s="11">
+      <c r="I54" s="11">
         <v>6</v>
       </c>
-      <c r="J51" s="11">
+      <c r="J54" s="11">
         <v>7</v>
       </c>
-      <c r="K51" s="11">
+      <c r="K54" s="11">
         <v>8</v>
       </c>
-      <c r="L51" s="11">
+      <c r="L54" s="11">
         <v>9</v>
       </c>
-      <c r="M51" s="11">
+      <c r="M54" s="11">
         <v>10</v>
       </c>
-      <c r="N51" s="11">
+      <c r="N54" s="11">
         <v>11</v>
       </c>
-      <c r="O51" s="11">
+      <c r="O54" s="11">
         <v>12</v>
       </c>
-      <c r="P51" s="11">
+      <c r="P54" s="11">
         <v>13</v>
       </c>
-      <c r="Q51" s="11">
+      <c r="Q54" s="11">
         <v>14</v>
       </c>
-      <c r="R51" s="11">
+      <c r="R54" s="11">
         <v>15</v>
       </c>
-      <c r="S51" s="11">
+      <c r="S54" s="11">
         <v>16</v>
       </c>
-    </row>
-    <row r="52" spans="1:23" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="B52" s="48">
-        <v>1</v>
-      </c>
-      <c r="C52" s="49">
-        <v>2</v>
-      </c>
-      <c r="D52" s="40"/>
-      <c r="E52" s="43"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="12"/>
-      <c r="K52" s="12"/>
-      <c r="L52" s="12"/>
-      <c r="M52" s="12"/>
-      <c r="N52" s="12"/>
-      <c r="O52" s="12"/>
-      <c r="P52" s="12"/>
-      <c r="Q52" s="12"/>
-      <c r="R52" s="12"/>
-      <c r="S52" s="12"/>
-      <c r="T52" s="12"/>
-      <c r="U52" s="12"/>
-      <c r="V52" s="12"/>
-      <c r="W52" s="3"/>
-    </row>
-    <row r="53" spans="1:23" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="B53" s="48">
-        <v>2</v>
-      </c>
-      <c r="C53" s="48">
-        <v>2</v>
-      </c>
-      <c r="D53" s="12"/>
-      <c r="E53" s="40"/>
-      <c r="F53" s="43"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="12"/>
-      <c r="J53" s="12"/>
-      <c r="K53" s="12"/>
-      <c r="L53" s="12"/>
-      <c r="M53" s="12"/>
-      <c r="N53" s="12"/>
-      <c r="O53" s="12"/>
-      <c r="P53" s="12"/>
-      <c r="Q53" s="12"/>
-      <c r="R53" s="12"/>
-      <c r="S53" s="12"/>
-      <c r="T53" s="12"/>
-      <c r="U53" s="12"/>
-      <c r="V53" s="12"/>
-      <c r="W53" s="3"/>
-    </row>
-    <row r="54" spans="1:23" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="B54" s="48">
-        <v>3</v>
-      </c>
-      <c r="C54" s="48">
-        <v>4</v>
-      </c>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="44"/>
-      <c r="G54" s="45"/>
-      <c r="H54" s="45"/>
-      <c r="I54" s="43"/>
-      <c r="J54" s="12"/>
-      <c r="K54" s="12"/>
-      <c r="L54" s="12"/>
-      <c r="M54" s="12"/>
-      <c r="N54" s="12"/>
-      <c r="O54" s="12"/>
-      <c r="P54" s="12"/>
-      <c r="Q54" s="12"/>
-      <c r="R54" s="12"/>
-      <c r="S54" s="12"/>
-      <c r="T54" s="12"/>
-      <c r="U54" s="12"/>
-      <c r="V54" s="12"/>
-      <c r="W54" s="3"/>
     </row>
     <row r="55" spans="1:23" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="47" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B55" s="48">
-        <v>2</v>
-      </c>
-      <c r="C55" s="48">
-        <v>7</v>
-      </c>
-      <c r="D55" s="12"/>
-      <c r="E55" s="40"/>
-      <c r="F55" s="41"/>
-      <c r="G55" s="41"/>
-      <c r="H55" s="41"/>
-      <c r="I55" s="41"/>
-      <c r="J55" s="41"/>
-      <c r="K55" s="42"/>
+        <v>1</v>
+      </c>
+      <c r="C55" s="49">
+        <v>2</v>
+      </c>
+      <c r="D55" s="40"/>
+      <c r="E55" s="43"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
       <c r="L55" s="12"/>
       <c r="M55" s="12"/>
       <c r="N55" s="12"/>
@@ -2216,18 +2213,18 @@
     </row>
     <row r="56" spans="1:23" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="47" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B56" s="48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C56" s="48">
         <v>2</v>
       </c>
       <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="40"/>
-      <c r="G56" s="42"/>
+      <c r="E56" s="40"/>
+      <c r="F56" s="43"/>
+      <c r="G56" s="12"/>
       <c r="H56" s="12"/>
       <c r="I56" s="12"/>
       <c r="J56" s="12"/>
@@ -2247,23 +2244,23 @@
     </row>
     <row r="57" spans="1:23" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="47" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B57" s="48">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C57" s="48">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" s="12"/>
       <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
-      <c r="I57" s="12"/>
-      <c r="J57" s="40"/>
-      <c r="K57" s="41"/>
-      <c r="L57" s="42"/>
+      <c r="F57" s="44"/>
+      <c r="G57" s="45"/>
+      <c r="H57" s="45"/>
+      <c r="I57" s="43"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="12"/>
       <c r="M57" s="12"/>
       <c r="N57" s="12"/>
       <c r="O57" s="12"/>
@@ -2278,23 +2275,23 @@
     </row>
     <row r="58" spans="1:23" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="47" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B58" s="48">
+        <v>2</v>
+      </c>
+      <c r="C58" s="48">
         <v>7</v>
       </c>
-      <c r="C58" s="48">
-        <v>3</v>
-      </c>
       <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="40"/>
-      <c r="K58" s="41"/>
-      <c r="L58" s="43"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="41"/>
+      <c r="G58" s="41"/>
+      <c r="H58" s="41"/>
+      <c r="I58" s="41"/>
+      <c r="J58" s="41"/>
+      <c r="K58" s="42"/>
+      <c r="L58" s="12"/>
       <c r="M58" s="12"/>
       <c r="N58" s="12"/>
       <c r="O58" s="12"/>
@@ -2309,25 +2306,25 @@
     </row>
     <row r="59" spans="1:23" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="47" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="B59" s="48">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C59" s="48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" s="12"/>
       <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="12"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="42"/>
       <c r="H59" s="12"/>
       <c r="I59" s="12"/>
       <c r="J59" s="12"/>
       <c r="K59" s="12"/>
-      <c r="L59" s="40"/>
-      <c r="M59" s="41"/>
-      <c r="N59" s="42"/>
+      <c r="L59" s="12"/>
+      <c r="M59" s="12"/>
+      <c r="N59" s="12"/>
       <c r="O59" s="12"/>
       <c r="P59" s="12"/>
       <c r="Q59" s="12"/>
@@ -2340,45 +2337,51 @@
     </row>
     <row r="60" spans="1:23" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="47" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B60" s="48">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C60" s="48">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" s="12"/>
       <c r="E60" s="12"/>
       <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="12"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="12"/>
-      <c r="K60" s="12"/>
-      <c r="L60" s="12"/>
+      <c r="G60" s="40"/>
+      <c r="H60" s="41"/>
+      <c r="I60" s="42"/>
       <c r="M60" s="12"/>
       <c r="N60" s="12"/>
-      <c r="O60" s="40"/>
-      <c r="P60" s="41"/>
-      <c r="Q60" s="41"/>
-      <c r="R60" s="41"/>
-      <c r="S60" s="42"/>
+      <c r="O60" s="12"/>
+      <c r="P60" s="12"/>
+      <c r="Q60" s="12"/>
+      <c r="R60" s="12"/>
+      <c r="S60" s="12"/>
       <c r="T60" s="12"/>
       <c r="U60" s="12"/>
       <c r="V60" s="12"/>
       <c r="W60" s="3"/>
     </row>
-    <row r="61" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="B61" s="48">
+        <v>7</v>
+      </c>
+      <c r="C61" s="48">
+        <v>3</v>
+      </c>
       <c r="D61" s="12"/>
       <c r="E61" s="12"/>
       <c r="F61" s="12"/>
       <c r="G61" s="12"/>
       <c r="H61" s="12"/>
       <c r="I61" s="12"/>
-      <c r="J61" s="12"/>
-      <c r="K61" s="12"/>
-      <c r="L61" s="12"/>
+      <c r="J61" s="40"/>
+      <c r="K61" s="41"/>
+      <c r="L61" s="43"/>
       <c r="M61" s="12"/>
       <c r="N61" s="12"/>
       <c r="O61" s="12"/>
@@ -2391,7 +2394,16 @@
       <c r="V61" s="12"/>
       <c r="W61" s="3"/>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="B62" s="48">
+        <v>9</v>
+      </c>
+      <c r="C62" s="48">
+        <v>3</v>
+      </c>
       <c r="D62" s="12"/>
       <c r="E62" s="12"/>
       <c r="F62" s="12"/>
@@ -2400,9 +2412,9 @@
       <c r="I62" s="12"/>
       <c r="J62" s="12"/>
       <c r="K62" s="12"/>
-      <c r="L62" s="12"/>
-      <c r="M62" s="12"/>
-      <c r="N62" s="12"/>
+      <c r="L62" s="44"/>
+      <c r="M62" s="45"/>
+      <c r="N62" s="43"/>
       <c r="O62" s="12"/>
       <c r="P62" s="12"/>
       <c r="Q62" s="12"/>
@@ -2411,6 +2423,112 @@
       <c r="T62" s="12"/>
       <c r="U62" s="12"/>
       <c r="V62" s="12"/>
+      <c r="W62" s="3"/>
+    </row>
+    <row r="63" spans="1:23" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="B63" s="48">
+        <v>3</v>
+      </c>
+      <c r="C63" s="48">
+        <v>9</v>
+      </c>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="40"/>
+      <c r="G63" s="41"/>
+      <c r="H63" s="41"/>
+      <c r="I63" s="41"/>
+      <c r="J63" s="41"/>
+      <c r="K63" s="41"/>
+      <c r="L63" s="41"/>
+      <c r="M63" s="41"/>
+      <c r="N63" s="42"/>
+      <c r="O63" s="12"/>
+      <c r="P63" s="12"/>
+      <c r="Q63" s="12"/>
+      <c r="R63" s="12"/>
+      <c r="S63" s="12"/>
+      <c r="T63" s="12"/>
+      <c r="U63" s="12"/>
+      <c r="V63" s="12"/>
+      <c r="W63" s="3"/>
+    </row>
+    <row r="64" spans="1:23" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="B64" s="48">
+        <v>12</v>
+      </c>
+      <c r="C64" s="48">
+        <v>5</v>
+      </c>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="12"/>
+      <c r="L64" s="12"/>
+      <c r="M64" s="12"/>
+      <c r="N64" s="12"/>
+      <c r="O64" s="40"/>
+      <c r="P64" s="41"/>
+      <c r="Q64" s="41"/>
+      <c r="R64" s="41"/>
+      <c r="S64" s="42"/>
+      <c r="T64" s="12"/>
+      <c r="U64" s="12"/>
+      <c r="V64" s="12"/>
+      <c r="W64" s="3"/>
+    </row>
+    <row r="65" spans="4:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="12"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="12"/>
+      <c r="L65" s="12"/>
+      <c r="M65" s="12"/>
+      <c r="N65" s="12"/>
+      <c r="O65" s="12"/>
+      <c r="P65" s="12"/>
+      <c r="Q65" s="12"/>
+      <c r="R65" s="12"/>
+      <c r="S65" s="12"/>
+      <c r="T65" s="12"/>
+      <c r="U65" s="12"/>
+      <c r="V65" s="12"/>
+      <c r="W65" s="3"/>
+    </row>
+    <row r="66" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="12"/>
+      <c r="L66" s="12"/>
+      <c r="M66" s="12"/>
+      <c r="N66" s="12"/>
+      <c r="O66" s="12"/>
+      <c r="P66" s="12"/>
+      <c r="Q66" s="12"/>
+      <c r="R66" s="12"/>
+      <c r="S66" s="12"/>
+      <c r="T66" s="12"/>
+      <c r="U66" s="12"/>
+      <c r="V66" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
